--- a/轻松筹uuid.xlsx
+++ b/轻松筹uuid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jupyter-notebook\轻松筹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebrina\Documents\轻松筹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C30B2CA-A7B8-4C70-B5A6-8F9D2483A702}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C7C0F-CA77-4434-BDB1-C998FB64CD66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" xr2:uid="{CEB3E5DB-B498-40A1-87FF-3DD570E939A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
   <si>
     <t>9d0110f1-a870-4341-8923-0189f7782efa</t>
   </si>
@@ -222,12 +222,6 @@
     <t>d24fce01-df9b-4286-88e6-50c5d1e3985d</t>
   </si>
   <si>
-    <t>4bd73595-7ef6-481d-86c9-65a96123e444</t>
-  </si>
-  <si>
-    <t>48f1ba52-8df0-4248-b907-eb5f02da9741</t>
-  </si>
-  <si>
     <t>88f05bd9-1b5d-46de-99f4-d69d55cd7918</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   </si>
   <si>
     <t>ad4e4e14-6dd8-42d7-b0ef-3f5cb03f43cb</t>
-  </si>
-  <si>
-    <t>4febecc3-2e6e-46b1-9d45-89b91a57d8ba</t>
   </si>
   <si>
     <t>b064a83a-d9c6-4ce2-9327-6b9406b882ea</t>
@@ -448,136 +439,797 @@
     <t>2d7c329d-d719-4a43-9bb1-d38282368873</t>
   </si>
   <si>
+    <t>af5dce35-9086-4516-aec7-617974db54fb</t>
+  </si>
+  <si>
+    <t>eb86c839-f6ef-40cf-8f23-4bbd427605b3</t>
+  </si>
+  <si>
+    <t>8392cc12-60f7-40e7-a591-f5ebd869ce39</t>
+  </si>
+  <si>
+    <t>51845c97-2c29-45be-a307-1424a88e01b3</t>
+  </si>
+  <si>
+    <t>ead74df3-9618-4ac9-9119-e1fa9b0f369d</t>
+  </si>
+  <si>
+    <t>d10925bb-6b44-449b-a0b7-df427b0e1e57</t>
+  </si>
+  <si>
+    <t>af77dd4c-e208-4885-bc22-3cc5c1688168</t>
+  </si>
+  <si>
+    <t>d596e2da-70f0-47d7-be35-2e92533096a0</t>
+  </si>
+  <si>
+    <t>eb1adb2c-226a-4d90-bd0f-26417cdabb58</t>
+  </si>
+  <si>
+    <t>7935b221-22db-4bf6-b116-31cbf22e6ba7</t>
+  </si>
+  <si>
+    <t>05a6ec96-f949-4652-a639-7648b4b0baab</t>
+  </si>
+  <si>
+    <t>51854f89-257d-4d23-b2b6-ae2b38c257fe</t>
+  </si>
+  <si>
+    <t>0a04b004-949f-46ce-bf35-34b0630b9000</t>
+  </si>
+  <si>
+    <t>4483ffc3-e5bc-4517-9f25-92e2f222884d</t>
+  </si>
+  <si>
+    <t>89769a08-835b-4fe9-8cec-01fbe3608e5b</t>
+  </si>
+  <si>
+    <t>ecf63447-5c64-41ec-b3fa-a4703d133416</t>
+  </si>
+  <si>
+    <t>426af10d-e461-4541-8d47-748ad469ad69</t>
+  </si>
+  <si>
+    <t>b13a403a-758c-4915-bc42-0117fcaef00b</t>
+  </si>
+  <si>
+    <t>360409bc-fd94-422c-96ba-3f4d2316493e</t>
+  </si>
+  <si>
+    <t>fa4d1c3f-979f-46fe-b0f5-ebae9c21dbe2</t>
+  </si>
+  <si>
+    <t>5ec0249e-a17d-48ee-825b-3a79f6771ccf</t>
+  </si>
+  <si>
+    <t>eb8ea929-d565-4bb8-aeb8-088fe15a018e</t>
+  </si>
+  <si>
+    <t>bf8ad905-feb0-4359-9e99-4686e14cbb96</t>
+  </si>
+  <si>
+    <t>c8d99740-d7c9-4139-b26d-5b49c6c02ef9</t>
+  </si>
+  <si>
+    <t>395d59de-c087-4646-927b-a2d3d8a04745</t>
+  </si>
+  <si>
+    <t>10ac63d4-d2ca-462e-9905-47c7d0ca6a1b</t>
+  </si>
+  <si>
+    <t>b43bd4e2-091d-459b-89c9-ba70f85a5a31</t>
+  </si>
+  <si>
+    <t>b21ceb32-b86e-4ee1-b6f9-ee6700a6ccd6</t>
+  </si>
+  <si>
+    <t>6a2d0dbb-5f0d-4765-86fe-213d4f71e528</t>
+  </si>
+  <si>
+    <t>704d0ab1-f625-4265-8fa1-4a99f9fcc8b2</t>
+  </si>
+  <si>
+    <t>a2d19fcc-1abd-4405-857b-a47fdd60c1ce</t>
+  </si>
+  <si>
+    <t>44f5dd7f-2efe-4e46-b627-c091ec4069cb</t>
+  </si>
+  <si>
+    <t>0aa9ff84-8636-4762-b5f9-eb5dbb192e98</t>
+  </si>
+  <si>
+    <t>e29480e6-8fcf-4fbe-9c25-a87eef7e0a44</t>
+  </si>
+  <si>
+    <t>609e768e-f4aa-4fef-a288-23e8ef3ef900</t>
+  </si>
+  <si>
+    <t>acec46a7-e71f-4835-b759-fe822db99ee5</t>
+  </si>
+  <si>
+    <t>52a5d74e-f99e-424a-9c1d-dfce44e57df9</t>
+  </si>
+  <si>
+    <t>0214bdb6-d537-43bf-b74b-5f4a6f13eeec</t>
+  </si>
+  <si>
+    <t>6e9110cc-3706-450a-89ce-3471411a1096</t>
+  </si>
+  <si>
+    <t>851af755-cf78-4e8e-b0e9-d3f92db5b379</t>
+  </si>
+  <si>
+    <t>1dab6826-8bb3-4f62-842e-065b4341ee64</t>
+  </si>
+  <si>
+    <t>9c9ced40-8590-4ca3-a04d-8b611bce4d21</t>
+  </si>
+  <si>
+    <t>039c7916-6359-4784-85bd-6e829cd7ff0a</t>
+  </si>
+  <si>
     <t>2c93e1e3-a07f-498f-8847-646f9074f757</t>
-  </si>
-  <si>
-    <t>af5dce35-9086-4516-aec7-617974db54fb</t>
-  </si>
-  <si>
-    <t>eb86c839-f6ef-40cf-8f23-4bbd427605b3</t>
-  </si>
-  <si>
-    <t>8392cc12-60f7-40e7-a591-f5ebd869ce39</t>
-  </si>
-  <si>
-    <t>51845c97-2c29-45be-a307-1424a88e01b3</t>
-  </si>
-  <si>
-    <t>ead74df3-9618-4ac9-9119-e1fa9b0f369d</t>
-  </si>
-  <si>
-    <t>d10925bb-6b44-449b-a0b7-df427b0e1e57</t>
-  </si>
-  <si>
-    <t>af77dd4c-e208-4885-bc22-3cc5c1688168</t>
-  </si>
-  <si>
-    <t>d596e2da-70f0-47d7-be35-2e92533096a0</t>
-  </si>
-  <si>
-    <t>eb1adb2c-226a-4d90-bd0f-26417cdabb58</t>
-  </si>
-  <si>
-    <t>7935b221-22db-4bf6-b116-31cbf22e6ba7</t>
-  </si>
-  <si>
-    <t>05a6ec96-f949-4652-a639-7648b4b0baab</t>
-  </si>
-  <si>
-    <t>51854f89-257d-4d23-b2b6-ae2b38c257fe</t>
-  </si>
-  <si>
-    <t>0a04b004-949f-46ce-bf35-34b0630b9000</t>
-  </si>
-  <si>
-    <t>4483ffc3-e5bc-4517-9f25-92e2f222884d</t>
-  </si>
-  <si>
-    <t>89769a08-835b-4fe9-8cec-01fbe3608e5b</t>
-  </si>
-  <si>
-    <t>ecf63447-5c64-41ec-b3fa-a4703d133416</t>
-  </si>
-  <si>
-    <t>426af10d-e461-4541-8d47-748ad469ad69</t>
-  </si>
-  <si>
-    <t>b13a403a-758c-4915-bc42-0117fcaef00b</t>
-  </si>
-  <si>
-    <t>360409bc-fd94-422c-96ba-3f4d2316493e</t>
-  </si>
-  <si>
-    <t>fa4d1c3f-979f-46fe-b0f5-ebae9c21dbe2</t>
-  </si>
-  <si>
-    <t>5ec0249e-a17d-48ee-825b-3a79f6771ccf</t>
-  </si>
-  <si>
-    <t>eb8ea929-d565-4bb8-aeb8-088fe15a018e</t>
-  </si>
-  <si>
-    <t>bf8ad905-feb0-4359-9e99-4686e14cbb96</t>
-  </si>
-  <si>
-    <t>c8d99740-d7c9-4139-b26d-5b49c6c02ef9</t>
-  </si>
-  <si>
-    <t>395d59de-c087-4646-927b-a2d3d8a04745</t>
-  </si>
-  <si>
-    <t>10ac63d4-d2ca-462e-9905-47c7d0ca6a1b</t>
-  </si>
-  <si>
-    <t>b43bd4e2-091d-459b-89c9-ba70f85a5a31</t>
-  </si>
-  <si>
-    <t>b21ceb32-b86e-4ee1-b6f9-ee6700a6ccd6</t>
-  </si>
-  <si>
-    <t>6a2d0dbb-5f0d-4765-86fe-213d4f71e528</t>
-  </si>
-  <si>
-    <t>704d0ab1-f625-4265-8fa1-4a99f9fcc8b2</t>
-  </si>
-  <si>
-    <t>a2d19fcc-1abd-4405-857b-a47fdd60c1ce</t>
-  </si>
-  <si>
-    <t>44f5dd7f-2efe-4e46-b627-c091ec4069cb</t>
-  </si>
-  <si>
-    <t>0aa9ff84-8636-4762-b5f9-eb5dbb192e98</t>
-  </si>
-  <si>
-    <t>e29480e6-8fcf-4fbe-9c25-a87eef7e0a44</t>
-  </si>
-  <si>
-    <t>609e768e-f4aa-4fef-a288-23e8ef3ef900</t>
-  </si>
-  <si>
-    <t>acec46a7-e71f-4835-b759-fe822db99ee5</t>
-  </si>
-  <si>
-    <t>52a5d74e-f99e-424a-9c1d-dfce44e57df9</t>
-  </si>
-  <si>
-    <t>0214bdb6-d537-43bf-b74b-5f4a6f13eeec</t>
-  </si>
-  <si>
-    <t>6e9110cc-3706-450a-89ce-3471411a1096</t>
-  </si>
-  <si>
-    <t>851af755-cf78-4e8e-b0e9-d3f92db5b379</t>
-  </si>
-  <si>
-    <t>1dab6826-8bb3-4f62-842e-065b4341ee64</t>
-  </si>
-  <si>
-    <t>9c9ced40-8590-4ca3-a04d-8b611bce4d21</t>
-  </si>
-  <si>
-    <t>039c7916-6359-4784-85bd-6e829cd7ff0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4bd73595-7ef6-481d-86c9-65a96123e444</t>
+  </si>
+  <si>
+    <t>c7ee67d3-db9c-47ff-8eae-251c46d794a5</t>
+  </si>
+  <si>
+    <t>cdd2161f-6a87-45a0-8e67-14b4ef8a5d72</t>
+  </si>
+  <si>
+    <t>a5700ce0-6da0-4dcb-b0a9-95c8f78df6ee</t>
+  </si>
+  <si>
+    <t>8e42003d-890b-4247-a8a7-f0fcfca50b63</t>
+  </si>
+  <si>
+    <t>d8168960-e8eb-43b4-9559-0fc9d0d8902f</t>
+  </si>
+  <si>
+    <t>5b5f5f5c-380d-4853-8454-e7ce460091e3</t>
+  </si>
+  <si>
+    <t>34b2e39c-45b8-4ae2-8fb6-4e839d598de6</t>
+  </si>
+  <si>
+    <t>56bc8829-8d4c-4900-82cd-6bdd5bda7044</t>
+  </si>
+  <si>
+    <t>cbaea6b2-3979-4b43-ad44-8bc03c9f7d47</t>
+  </si>
+  <si>
+    <t>1e8482e3-650d-4d09-b6a6-315e57eedf3b</t>
+  </si>
+  <si>
+    <t>951925b7-7939-46f8-8fd7-49278f395129</t>
+  </si>
+  <si>
+    <t>6c2ae5c9-36e4-4b20-9a39-54a7d4e6e28a</t>
+  </si>
+  <si>
+    <t>93970cf7-5096-42d8-a5d0-36c9bbdefc6d</t>
+  </si>
+  <si>
+    <t>0229eded-2e75-489b-9eec-acb8ae2699ab</t>
+  </si>
+  <si>
+    <t>0606fdc0-0725-4063-a158-07b102d30ed0</t>
+  </si>
+  <si>
+    <t>f30e9ef1-d85a-4be4-b9f0-20cdc7ae21ca</t>
+  </si>
+  <si>
+    <t>3143f359-6fb2-41af-a903-94a6f688596b</t>
+  </si>
+  <si>
+    <t>9c007104-9413-4258-a25a-531b155e1578</t>
+  </si>
+  <si>
+    <t>39ebf72d-b4e1-4839-aa80-2bae5a15a7e3</t>
+  </si>
+  <si>
+    <t>9ddf4de1-8e13-48fd-98f9-aaf07a124c28</t>
+  </si>
+  <si>
+    <t>8b64ebce-9413-4cf9-a439-347633823648</t>
+  </si>
+  <si>
+    <t>8063a350-9118-4017-9269-8c12cd1a2f8b</t>
+  </si>
+  <si>
+    <t>5a01f5a7-7e61-41ef-8882-341d6f265c25</t>
+  </si>
+  <si>
+    <t>6dfe73d3-f176-42c4-96d2-99baef0a8ce0</t>
+  </si>
+  <si>
+    <t>dad07232-6461-4d9f-bb93-b80bbae5ad6c</t>
+  </si>
+  <si>
+    <t>d0afd275-9b66-4385-8b56-50c9acf9fcac</t>
+  </si>
+  <si>
+    <t>d93a393e-ad6e-4216-8a8b-69306fbce685</t>
+  </si>
+  <si>
+    <t>217a62c7-3323-41ed-a633-8a22df9fab66</t>
+  </si>
+  <si>
+    <t>e7f20e31-78af-42ff-a51e-40c57f45b8f7</t>
+  </si>
+  <si>
+    <t>1b20d44b-4a26-4cfb-b3a2-49010f8bbf08</t>
+  </si>
+  <si>
+    <t>f1e5b9ad-978c-46a2-8e55-17290761ba4b</t>
+  </si>
+  <si>
+    <t>5a26c034-d1ce-4d85-a317-4735ba3740ad</t>
+  </si>
+  <si>
+    <t>81b7d3f8-4a19-4369-97e6-fb580b66e2d5</t>
+  </si>
+  <si>
+    <t>f7152961-1fd8-4805-ba51-18609b914f5b</t>
+  </si>
+  <si>
+    <t>799888b7-12ff-40f3-96bd-5a52783aaa86</t>
+  </si>
+  <si>
+    <t>2d512ce3-6aec-4bfb-9da6-ae99133a03eb</t>
+  </si>
+  <si>
+    <t>e6502dad-52fc-4584-a093-a4776dfd4d77</t>
+  </si>
+  <si>
+    <t>e1b3e1bb-395d-43a7-aa0f-4d4cd72c03a3</t>
+  </si>
+  <si>
+    <t>129dbe7a-4a12-4557-9e78-36178b1d4537</t>
+  </si>
+  <si>
+    <t>3a25b971-6eae-4c60-9b25-f01fe732042a</t>
+  </si>
+  <si>
+    <t>8839bc0d-fdde-445a-9444-47d477106d35</t>
+  </si>
+  <si>
+    <t>0c848d69-b017-43cf-a3a8-cd270ac79d05</t>
+  </si>
+  <si>
+    <t>5af99d92-aef5-4d6b-92ad-13ec233ed958</t>
+  </si>
+  <si>
+    <t>bdee85a9-d406-468e-89d7-54d6af266dea</t>
+  </si>
+  <si>
+    <t>b41716c2-7df4-43aa-bc32-86f274f8549b</t>
+  </si>
+  <si>
+    <t>fd222c9d-b254-4588-98a6-ac98c32b580a</t>
+  </si>
+  <si>
+    <t>0df399a7-2247-40c3-8cb8-2ff9ced8c147</t>
+  </si>
+  <si>
+    <t>7998105b-63bd-4c5a-a53b-b729d581944d</t>
+  </si>
+  <si>
+    <t>91f693e4-0d1f-4025-ac98-173438fbf68b</t>
+  </si>
+  <si>
+    <t>f1c75c0c-f93c-4c8e-8c25-6ddc23e38d38</t>
+  </si>
+  <si>
+    <t>06f96838-534d-4c8a-af20-748d475ad95f</t>
+  </si>
+  <si>
+    <t>fe5d5ea1-4981-4d71-a014-ac4a9a71be20</t>
+  </si>
+  <si>
+    <t>3c5b10b7-ddf6-41a7-a30c-ecd499492ef8</t>
+  </si>
+  <si>
+    <t>4a2bf726-dde2-460a-8745-1d2bb17d54ef</t>
+  </si>
+  <si>
+    <t>8531867d-2b0f-4100-8825-b27a2d539907</t>
+  </si>
+  <si>
+    <t>3c4b1309-81af-44b8-aa78-56f6622472c1</t>
+  </si>
+  <si>
+    <t>4d0a4a87-2d00-4e95-91d3-79f4374eb268</t>
+  </si>
+  <si>
+    <t>c81a4790-4e6c-4afe-8c3d-9e062c155060</t>
+  </si>
+  <si>
+    <t>5e677d8d-c477-439a-9be4-267aeda6eb62</t>
+  </si>
+  <si>
+    <t>c2e6b7c6-f2f2-4e49-8969-aaea11f722cc</t>
+  </si>
+  <si>
+    <t>a62777d2-6420-4aad-a388-749dfb53755a</t>
+  </si>
+  <si>
+    <t>c5adeb79-f324-4fb5-885d-fc0f75922ae0</t>
+  </si>
+  <si>
+    <t>08c01ed6-9ed6-40b7-ad23-3e579b555850</t>
+  </si>
+  <si>
+    <t>ecd09a81-6903-46ea-9fa5-f7d22c512444</t>
+  </si>
+  <si>
+    <t>7f8c25bc-5890-4a09-b08a-723443b339fd</t>
+  </si>
+  <si>
+    <t>efeb22c8-0e71-49a9-9662-ff0b6eabb9fd</t>
+  </si>
+  <si>
+    <t>14ef1efe-ba5f-420b-af0f-c3d04dcffed9</t>
+  </si>
+  <si>
+    <t>22411208-eed0-4776-91d1-e02844014573</t>
+  </si>
+  <si>
+    <t>c09044be-ef3d-4c97-bc92-e9af27fbfdfe</t>
+  </si>
+  <si>
+    <t>de9f10de-8e84-49ab-b3a4-69cc8f668675</t>
+  </si>
+  <si>
+    <t>07a940d5-f22c-456c-a918-bab0cbc863ff</t>
+  </si>
+  <si>
+    <t>f8dc0b76-a75d-4754-83be-47dabe8e8ebb</t>
+  </si>
+  <si>
+    <t>a3442391-d8ec-4630-a7b0-e7b798412731</t>
+  </si>
+  <si>
+    <t>3e881565-616f-4621-81a8-a75392914aeb</t>
+  </si>
+  <si>
+    <t>00697cf1-aaf1-4342-b26e-2268d897c5cb</t>
+  </si>
+  <si>
+    <t>93a77384-f835-4655-8acc-8cca105ec949</t>
+  </si>
+  <si>
+    <t>db518c61-497d-45ca-92c3-80c10dcd315e</t>
+  </si>
+  <si>
+    <t>75ae5b65-a221-4152-9a94-bc7960524a05</t>
+  </si>
+  <si>
+    <t>7ea734e4-4070-4a43-a457-c8db99e3f464</t>
+  </si>
+  <si>
+    <t>f82d40aa-dc20-4a93-8f26-ba056f0f7206</t>
+  </si>
+  <si>
+    <t>2fa5924a-d4da-43fa-84e0-a75aa8c7bd15</t>
+  </si>
+  <si>
+    <t>1b65dedd-a579-4a24-bfae-d890903806fc</t>
+  </si>
+  <si>
+    <t>f9c8b195-9bf5-4bf4-908f-e6e7992d7d4a</t>
+  </si>
+  <si>
+    <t>df8cc979-e54c-4fb5-a1f1-7ea3e168c852</t>
+  </si>
+  <si>
+    <t>db2ed368-0139-47a0-b0d7-14de8c4915c3</t>
+  </si>
+  <si>
+    <t>4df7d630-bfe6-4ff4-ae8c-20be9a0fa983</t>
+  </si>
+  <si>
+    <t>7e8f6af1-e028-4ae7-8273-dbcf3c2b7922</t>
+  </si>
+  <si>
+    <t>df2054ae-22d0-4a16-b234-d0051a54e5de</t>
+  </si>
+  <si>
+    <t>adbc5860-b677-455d-9556-b4db72b6130a</t>
+  </si>
+  <si>
+    <t>b0966bb8-d59b-4be2-b26a-e50b8fb15996</t>
+  </si>
+  <si>
+    <t>4ded9fd6-786b-4c4b-83f1-75d1c30b21aa</t>
+  </si>
+  <si>
+    <t>3dc89013-58d2-46ef-8d3d-a5d1b3efb7a8</t>
+  </si>
+  <si>
+    <t>4fb6e292-b9ae-4849-b8e5-0860c88a9971</t>
+  </si>
+  <si>
+    <t>1d410ab2-8355-4bc0-acf9-030b444b47f1</t>
+  </si>
+  <si>
+    <t>a824fb80-c7a9-46b1-ad4e-862b700cf97e</t>
+  </si>
+  <si>
+    <t>6e429762-d1ea-4d39-87fc-3b5c55070b2e</t>
+  </si>
+  <si>
+    <t>66b53e08-11b1-4b72-b6e5-39c38c41a996</t>
+  </si>
+  <si>
+    <t>fb617f2f-ce2a-4fe3-9c51-8a73ac5fcdb6</t>
+  </si>
+  <si>
+    <t>4234f76f-a01c-4008-8a57-8f70db5fea9a</t>
+  </si>
+  <si>
+    <t>86990025-cfd7-47bd-bd28-5ca05d9b47a3</t>
+  </si>
+  <si>
+    <t>90bac3c3-c4ce-499d-8acc-4c27a04a82b1</t>
+  </si>
+  <si>
+    <t>9e6600a2-d2f6-4936-9d9e-0747d581de76</t>
+  </si>
+  <si>
+    <t>23c79d1a-52ec-4fe9-bb4f-9bf46ff73a93</t>
+  </si>
+  <si>
+    <t>5014e9d8-6b29-4745-a7eb-ef08a2576649</t>
+  </si>
+  <si>
+    <t>36757d25-2e2d-4e2c-9baf-ce78ec156e4d</t>
+  </si>
+  <si>
+    <t>f7b1ba28-fef6-4a4e-8d5b-6c8007e560d9</t>
+  </si>
+  <si>
+    <t>c3410dfa-f1f4-460f-8e9a-9d5eabc35c61</t>
+  </si>
+  <si>
+    <t>7c383ccf-3f8a-4bb6-a4e9-da6839f32bd1</t>
+  </si>
+  <si>
+    <t>34b08d63-2abe-4c2c-ab82-594782307c25</t>
+  </si>
+  <si>
+    <t>be78f001-cbbe-42d4-bd78-720a2b33660d</t>
+  </si>
+  <si>
+    <t>4bddfcd2-51a3-4619-ba24-6064c9b42d26</t>
+  </si>
+  <si>
+    <t>2cfced0d-b6eb-446b-a585-a79f3b6dad3a</t>
+  </si>
+  <si>
+    <t>8a7d03c5-c78a-4fae-ae24-358efa1ee529</t>
+  </si>
+  <si>
+    <t>8491c2be-c7d0-492e-974a-1a78565dbeaa</t>
+  </si>
+  <si>
+    <t>a108c44c-1120-4b33-ae1e-f856c1f35e54</t>
+  </si>
+  <si>
+    <t>744ab991-81a5-47a3-ad82-8c551904b2b3</t>
+  </si>
+  <si>
+    <t>af0c3390-05f5-4341-b0f6-3ee951c17bd9</t>
+  </si>
+  <si>
+    <t>ea7fc1e8-a3fb-49fb-8206-47cf3724ef5a</t>
+  </si>
+  <si>
+    <t>f437def1-50f2-47f3-bb88-660a89d083c2</t>
+  </si>
+  <si>
+    <t>53059dd1-cc92-44bf-b8c6-8ca0ae1af73d</t>
+  </si>
+  <si>
+    <t>58320ff3-1090-4521-b027-dcdb83b17d85</t>
+  </si>
+  <si>
+    <t>146e6444-205f-44b8-b803-755982cae614</t>
+  </si>
+  <si>
+    <t>f1edc13b-3a02-425d-be67-6b6132d97ba1</t>
+  </si>
+  <si>
+    <t>932e56a3-8548-4482-beb2-0f4c93b57e6a</t>
+  </si>
+  <si>
+    <t>46a1f0fd-adc7-4b6f-b958-5041e725861a</t>
+  </si>
+  <si>
+    <t>9ec77bc9-4fad-48b3-afef-6b34a7021a89</t>
+  </si>
+  <si>
+    <t>c12a6dfd-4463-4950-bee8-747878b2a997</t>
+  </si>
+  <si>
+    <t>22141c9a-c984-454a-99c2-cc0a21638bf6</t>
+  </si>
+  <si>
+    <t>b8fbb08e-8430-4184-b173-c7d4c002cd5d</t>
+  </si>
+  <si>
+    <t>1fd9f930-04cb-4691-8c8b-b450dd8c99af</t>
+  </si>
+  <si>
+    <t>e8e41950-f90f-46d7-aa22-de3758d3d2cf</t>
+  </si>
+  <si>
+    <t>bef5b4e9-2d97-4591-96da-72c664097653</t>
+  </si>
+  <si>
+    <t>20637a8d-9daa-4184-a52d-57067a51880c</t>
+  </si>
+  <si>
+    <t>3ef282bb-7ed8-42d6-8c86-04a9ba27cd69</t>
+  </si>
+  <si>
+    <t>b7af6497-a5fe-43e0-bfd3-70426b47df6c</t>
+  </si>
+  <si>
+    <t>a256feb0-40c3-426f-ade9-5551f56c0e8e</t>
+  </si>
+  <si>
+    <t>5d58758a-523f-4e0d-be19-5776004a797b</t>
+  </si>
+  <si>
+    <t>89ba4907-7462-4840-8b99-54febc486a8a</t>
+  </si>
+  <si>
+    <t>7fea0b2e-4023-4500-9876-010fcfa0eab5</t>
+  </si>
+  <si>
+    <t>12d44804-2d25-4b74-b92f-4c232b0288ce</t>
+  </si>
+  <si>
+    <t>fae767d9-d9d3-4a48-9563-0ea148105417</t>
+  </si>
+  <si>
+    <t>ecf8a17d-b898-45a1-9719-f45105cb61e0</t>
+  </si>
+  <si>
+    <t>a26021d4-907d-4e3c-bb9d-729cbc936f3c</t>
+  </si>
+  <si>
+    <t>226c0c8f-59fd-4487-a09b-65fdf50deebb</t>
+  </si>
+  <si>
+    <t>b0361dd9-4578-41be-8f87-e37223c7bd95</t>
+  </si>
+  <si>
+    <t>3c532b6f-4193-44f2-a23c-1bd1478897b7</t>
+  </si>
+  <si>
+    <t>e53a334d-50c9-4ca7-ac8e-aef2beb28c2b</t>
+  </si>
+  <si>
+    <t>f102a03b-ecc5-44b4-9a64-4eb9c76297b4</t>
+  </si>
+  <si>
+    <t>fe438310-5be1-45a5-9a6b-fdcb233f203e</t>
+  </si>
+  <si>
+    <t>db57e3e8-526a-41ba-aa99-5a5b8447f0bd</t>
+  </si>
+  <si>
+    <t>130539b2-0965-412b-839e-39ed0841c362</t>
+  </si>
+  <si>
+    <t>a079fdd6-f342-4fd8-9826-97bd1cc353a3</t>
+  </si>
+  <si>
+    <t>42d5e790-ebdf-49cb-a978-df2f05baaa6f</t>
+  </si>
+  <si>
+    <t>51117d7c-346e-4543-bdc5-ad1edf17fbb4</t>
+  </si>
+  <si>
+    <t>92b82f8e-aba5-455d-a325-125539e5e2cf</t>
+  </si>
+  <si>
+    <t>3349f3f1-41fb-4439-bfae-c38bad4496cd</t>
+  </si>
+  <si>
+    <t>e47ddb76-60ed-49a4-8fe7-60508b24252f</t>
+  </si>
+  <si>
+    <t>c56e5569-1a3d-4c59-a73b-a104ddabfb76</t>
+  </si>
+  <si>
+    <t>585acf7a-b533-4d17-a693-badd69a61127</t>
+  </si>
+  <si>
+    <t>11d88082-04b2-4aea-a2af-538eb6244fe9</t>
+  </si>
+  <si>
+    <t>7cfe1ab6-c6f9-43a2-8182-09024f7aba0b</t>
+  </si>
+  <si>
+    <t>38dcfb47-d37f-41ef-874f-6cfdd2da0b50</t>
+  </si>
+  <si>
+    <t>2ef4067a-3454-42b5-a17a-8fac35a33c55</t>
+  </si>
+  <si>
+    <t>8361e90c-a6a3-490b-8854-65d263b4970c</t>
+  </si>
+  <si>
+    <t>83f1c047-894d-44d5-94ec-81f3027d0e00</t>
+  </si>
+  <si>
+    <t>abc3bf76-3e29-4aff-bb00-aa8cfa478bf4</t>
+  </si>
+  <si>
+    <t>4ec4208c-9dcc-4a57-b91c-f270c7f04747</t>
+  </si>
+  <si>
+    <t>763de5f1-37ea-4207-84d9-36383b1ddbae</t>
+  </si>
+  <si>
+    <t>e2ae9e9a-bf0e-45ff-ac29-33a1d90fa351</t>
+  </si>
+  <si>
+    <t>4062ede4-91d3-4331-99b0-b07116e3725c</t>
+  </si>
+  <si>
+    <t>67d0c34c-cd2c-4148-b577-c60f9a90257c</t>
+  </si>
+  <si>
+    <t>782b45b2-9d8c-41ef-9236-00db34f3d8dd</t>
+  </si>
+  <si>
+    <t>5a7084ef-7500-4be0-af39-44e919e7b1bd</t>
+  </si>
+  <si>
+    <t>8cb31ceb-d025-4c76-ab97-afd84665986a</t>
+  </si>
+  <si>
+    <t>c213f2c8-0d95-45cb-850c-16af5491a7c5</t>
+  </si>
+  <si>
+    <t>4ca78183-00c3-42e7-b822-c92b38f605d9</t>
+  </si>
+  <si>
+    <t>0bba6e47-6673-4252-90df-313f19f3b366</t>
+  </si>
+  <si>
+    <t>aa5cca8e-fc9b-4a31-af01-be5e3ec78be1</t>
+  </si>
+  <si>
+    <t>c15a1f80-cfcc-4642-85a0-e94ca7815cd1</t>
+  </si>
+  <si>
+    <t>e03a3255-9af6-41e8-9dc5-52b7af2a61ac</t>
+  </si>
+  <si>
+    <t>2fb88e98-a7f6-4ced-9bb6-4b0231ae486e</t>
+  </si>
+  <si>
+    <t>f2a531e9-6f4a-43b0-b6ac-5735cdd761a9</t>
+  </si>
+  <si>
+    <t>513c24fc-b515-4942-bd20-28f0aa8ea92d</t>
+  </si>
+  <si>
+    <t>4ac5b051-c0e8-4443-af0d-2776ead02ca6</t>
+  </si>
+  <si>
+    <t>f270a69e-3a15-46f1-9dc9-146fd2958103</t>
+  </si>
+  <si>
+    <t>3ea3e9b1-be99-4eef-8e43-0cbe6fc72bc2</t>
+  </si>
+  <si>
+    <t>a78760ac-dd19-435b-a00c-a32194cb53ed</t>
+  </si>
+  <si>
+    <t>62ef1080-6f90-462a-80e0-d32a7ff8998e</t>
+  </si>
+  <si>
+    <t>1155a029-8496-4652-9a71-7791240714cc</t>
+  </si>
+  <si>
+    <t>d45be565-cae6-4ae7-a689-f7087fedf7ce</t>
+  </si>
+  <si>
+    <t>9954b218-0df6-42ec-bf80-12889db9ecf0</t>
+  </si>
+  <si>
+    <t>fbee2099-eb4e-4964-bfd7-0b0dbd804b4c</t>
+  </si>
+  <si>
+    <t>1d3b27ce-9847-4318-809a-c99b443154b5</t>
+  </si>
+  <si>
+    <t>6288c8b1-e650-40bc-8df2-387cc49aab26</t>
+  </si>
+  <si>
+    <t>28515d4c-9ac8-4671-93ef-d7e3dbe9964f</t>
+  </si>
+  <si>
+    <t>1af6c832-343c-49f4-bae6-f4fdcc088ed8</t>
+  </si>
+  <si>
+    <t>9ad49369-c363-429f-b58a-02980cde9c74</t>
+  </si>
+  <si>
+    <t>d74dba3b-4c62-4fab-8d56-d7dae304403a</t>
+  </si>
+  <si>
+    <t>6ec6058b-097b-4872-aa5b-4abf53b8e26f</t>
+  </si>
+  <si>
+    <t>6b836144-8610-446d-96e2-c66d7bd615c9</t>
+  </si>
+  <si>
+    <t>c3618556-646a-495c-9d0c-9d8e8da46b04</t>
+  </si>
+  <si>
+    <t>7f8b74f2-4de3-4027-baef-03d0116c5d85</t>
+  </si>
+  <si>
+    <t>dd497079-77ad-48d1-8c0d-8cfdd2da4800</t>
+  </si>
+  <si>
+    <t>8debc666-9cf7-4f76-8afd-e3bdd1b35522</t>
+  </si>
+  <si>
+    <t>7f1b4191-7713-4baa-9d24-388f10d96eb9</t>
+  </si>
+  <si>
+    <t>ab9f815c-8eed-45b5-b5af-e44fa7bc6cc7</t>
+  </si>
+  <si>
+    <t>750da3ca-bdb2-4d84-9370-e75b88ff5aaf</t>
+  </si>
+  <si>
+    <t>70cdec34-79e9-41ac-9cee-6485c5824c85</t>
+  </si>
+  <si>
+    <t>2f3d377a-8d81-400b-9cea-ced69c5a21f5</t>
+  </si>
+  <si>
+    <t>9e2c7489-c878-4849-92d6-f852ab5dc081</t>
+  </si>
+  <si>
+    <t>6f2810b5-99e1-4edd-ad37-f686b2ec4986</t>
+  </si>
+  <si>
+    <t>67997430-ab4f-4bd0-942a-e2e8a0e3f047</t>
+  </si>
+  <si>
+    <t>057ed180-fbf8-40bd-a0ae-13bc82283419</t>
+  </si>
+  <si>
+    <t>35db1cfc-539d-48e0-a772-83656515b8ad</t>
+  </si>
+  <si>
+    <t>e825cf9e-9376-423f-8e41-c33f1f6f10f6</t>
+  </si>
+  <si>
+    <t>a5e46d27-2732-4ecf-803b-74e7538a67bd</t>
+  </si>
+  <si>
+    <t>17227f0f-ca0e-4f03-a899-c094f582103b</t>
+  </si>
+  <si>
+    <t>eaa76988-8a44-47c1-a9b5-a8c831c0f195</t>
+  </si>
+  <si>
+    <t>a919dca5-1e9f-454e-a453-234eca3726c5</t>
   </si>
 </sst>
 </file>
@@ -623,10 +1275,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -941,17 +1594,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8AE3F4-608C-40D0-83A8-2A66544C9473}">
-  <dimension ref="A1:A184"/>
+  <dimension ref="A1:A401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1171,12 +1824,12 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
@@ -1291,77 +1944,77 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
@@ -1371,112 +2024,112 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -1486,387 +2139,1472 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
